--- a/AAII_Financials/Quarterly/KBLMU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBLMU_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>KBLMU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,19 +1134,19 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1108,16 +1161,22 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,19 +1184,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1152,16 +1211,22 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1254,49 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,66 +1389,78 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>200</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1381,16 +1472,16 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>100</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>400</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>400</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>300</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,41 +1689,47 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1854,99 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,14 +2249,14 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,11 +2266,11 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,16 +2334,22 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2164,119 +2361,137 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F47" s="3">
         <v>50700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>50000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>66300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>118200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>117700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>117400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>116900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>116600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>116500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>116200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F54" s="3">
         <v>51600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>50200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>66500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>118400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>118200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>118000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>117300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>117100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>117000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>116800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,16 +2878,18 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2640,7 +2901,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2652,48 +2913,54 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>100</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,96 +2974,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2874,17 +3165,23 @@
       <c r="M62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O62" s="3">
+        <v>4000</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>4200</v>
       </c>
       <c r="L66" s="3">
         <v>4300</v>
       </c>
       <c r="M66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="E72" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="F72" s="3">
         <v>1400</v>
       </c>
       <c r="G72" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I72" s="3">
         <v>1200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>100</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F76" s="3">
         <v>44800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>44800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>61300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>113900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>113500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>113200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>113000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>112800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>112800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>112700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4334,49 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>16700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>53000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-116200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-16000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-52800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>116700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBLMU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBLMU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>KBLMU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,31 +1151,32 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1167,16 +1194,19 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,22 +1214,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1217,16 +1247,19 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1288,52 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>600</v>
       </c>
       <c r="I20" s="3">
         <v>600</v>
       </c>
       <c r="J20" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
       </c>
       <c r="L20" s="3">
+        <v>500</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>300</v>
       </c>
       <c r="N20" s="3">
         <v>300</v>
       </c>
       <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,31 +1382,34 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1395,37 +1435,40 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
       </c>
       <c r="M23" s="3">
         <v>200</v>
@@ -1434,19 +1477,22 @@
         <v>200</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1478,14 +1524,14 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>300</v>
       </c>
       <c r="J26" s="3">
         <v>300</v>
       </c>
       <c r="K26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L26" s="3">
         <v>200</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>300</v>
       </c>
       <c r="J27" s="3">
         <v>300</v>
       </c>
       <c r="K27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L27" s="3">
         <v>200</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1721,18 +1782,18 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1924,105 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-600</v>
       </c>
       <c r="I32" s="3">
         <v>-600</v>
       </c>
       <c r="J32" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K32" s="3">
         <v>-500</v>
       </c>
       <c r="L32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-300</v>
       </c>
       <c r="N32" s="3">
         <v>-300</v>
       </c>
       <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>300</v>
       </c>
       <c r="J33" s="3">
         <v>300</v>
       </c>
       <c r="K33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L33" s="3">
         <v>200</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>300</v>
       </c>
       <c r="J35" s="3">
         <v>300</v>
       </c>
       <c r="K35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L35" s="3">
         <v>200</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,49 +2236,52 @@
         <v>300</v>
       </c>
       <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
       </c>
       <c r="L41" s="3">
+        <v>500</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2255,11 +2348,11 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,8 +2365,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,19 +2436,22 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2367,13 +2466,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2381,8 +2480,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2390,108 +2489,117 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E47" s="3">
         <v>12000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>50700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>50000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>66300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>118200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>117700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>117400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>116900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>116600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>116500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>116200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,31 +2807,34 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E54" s="3">
         <v>12400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>50200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>116800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2892,7 +3023,7 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2907,22 +3038,22 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>100</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,17 +3076,17 @@
         <v>2100</v>
       </c>
       <c r="F58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3096,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,37 +3114,40 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3019,10 +3156,10 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3030,58 +3167,64 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>700</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
       </c>
       <c r="L60" s="3">
+        <v>700</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,13 +3273,16 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>4000</v>
@@ -3171,8 +3317,8 @@
       <c r="O62" s="3">
         <v>4000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>4000</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7200</v>
+        <v>3500</v>
       </c>
       <c r="E66" s="3">
         <v>7200</v>
       </c>
       <c r="F66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>4700</v>
       </c>
       <c r="K66" s="3">
         <v>4700</v>
       </c>
       <c r="L66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,19 +3771,22 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E72" s="3">
         <v>900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1400</v>
       </c>
       <c r="G72" s="3">
         <v>1400</v>
@@ -3621,28 +3795,28 @@
         <v>1400</v>
       </c>
       <c r="I72" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J72" s="3">
         <v>1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>100</v>
       </c>
       <c r="N72" s="3">
         <v>100</v>
       </c>
       <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E76" s="3">
         <v>5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>44800</v>
       </c>
       <c r="G76" s="3">
         <v>44800</v>
       </c>
       <c r="H76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="I76" s="3">
         <v>61300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>113900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>113500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>113200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>113000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>112800</v>
       </c>
       <c r="N76" s="3">
         <v>112800</v>
       </c>
       <c r="O76" s="3">
+        <v>112800</v>
+      </c>
+      <c r="P76" s="3">
         <v>112700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>300</v>
       </c>
       <c r="J81" s="3">
         <v>300</v>
       </c>
       <c r="K81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L81" s="3">
         <v>200</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>39000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>16700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>53000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-116200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,38 +5058,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-39000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-52800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4854,19 +5100,22 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>116700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>800</v>
       </c>
       <c r="E102" s="3">
         <v>-300</v>
       </c>
       <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
